--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/71_Şırnak_2022.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/71_Şırnak_2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{26E1C3D7-88B5-4C38-886D-D4E58D8503DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0857B06E-23CA-4CCD-8CC7-C36A4902BC1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8544" yWindow="6144" windowWidth="6528" windowHeight="5280" tabRatio="707" xr2:uid="{7664D169-B3DD-479A-9FC9-392987A43D7A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="707" xr2:uid="{8159CFC3-03CC-4D9F-BB65-6178A1BD5178}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK " sheetId="113" r:id="rId1"/>
@@ -981,14 +981,14 @@
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{4CCEF5C6-0D5A-4099-A80B-7E4B37A6BE0A}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{60AAE6B8-78A5-46C5-8058-81B583149BA6}"/>
-    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{086DD8E9-DE19-42EE-BB85-B7A570717FF5}"/>
-    <cellStyle name="Normal 3" xfId="5" xr:uid="{DEC23617-D421-44E6-B1E0-155399B6EA58}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{420B10B7-97A8-4E6B-82E6-A2C90E57B68C}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{650E254F-5C7C-40D1-A93A-CD041BCB58D6}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{F5B23953-6E9A-4223-A9CB-6B9D4001B8DC}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{86FBA589-8A79-48DB-9787-D8E28475F86E}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{C332E6D8-BCBE-498B-AC22-BE94091A6142}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{3A774119-7294-496B-AF01-B2EB5FF16648}"/>
+    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{1CC1AD36-3242-4892-B0CB-0443847D9947}"/>
+    <cellStyle name="Normal 3" xfId="5" xr:uid="{B5A4B7A7-94D4-4EE7-98F1-1B0101B8B01A}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{A5BDE469-0460-434D-87F9-43D7050A76C3}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{7AC5FC8E-44B1-4D03-8EAB-B9EE380ED2ED}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{2B03772A-B08D-488A-9DBD-223331451FDB}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{ECA97397-4903-468A-924D-C8E56EDF35DD}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1358,7 +1358,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9446DE4A-AC07-4C4C-9D87-0F4624A5EEBD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E12C01FD-074A-4C3B-89DB-FE888C587A81}">
   <dimension ref="A1:F106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2653,17 +2653,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D8AEF9FE-3327-48EE-A7E5-155AD36652C2}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{07EB7CB0-011D-4057-891A-DAFD3268C4A5}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2A671228-EF09-46BF-9192-9A34EE47FBF6}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{FA80A17B-2DAF-4957-836B-D194DA554CC9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F690D1AB-872C-4CE2-9E44-98BA64829819}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E7FECB97-95D4-4EE2-A483-F9702C1638EB}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F3A967E6-1344-473D-A614-CFF2C24AF64C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{50BC8145-9946-4599-AEEF-816C2E0FE1CD}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{7E552416-654A-4912-9622-1DFC5FEB763E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{C93A715E-6799-46C4-A401-9AB164BA7B5A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2090EE22-E523-4B4F-BCE5-6BB46C844934}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{80C3A4FC-2D0B-4CD3-B369-7556FD88C01E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{464303DF-3D79-48CC-9C9D-1663177CE6CD}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B892C3D3-6AC3-42B5-8366-673A89C318C3}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{73081795-8559-4F9D-BFDA-285A88B5ED64}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{39D96AFC-8D2E-4005-8B46-D5EEE58E29B6}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1D4285A6-B3B5-490C-9340-069D90C78988}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D4DA3395-88AB-4053-A486-B25F37F2E547}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E6A9BE82-B6CC-47BF-A0A3-23041A09116D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{71AD1805-08E6-4594-A96B-873E27CEEFB8}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{0B5F82C6-0A38-468B-BE6E-FFC043044B74}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CD3B36DC-B992-498A-B707-296B90EA92B2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2676,7 +2676,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18F728BF-4592-45BC-9380-C87AB1274199}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{219169F1-3EE0-4D04-81C7-5D9F4E753B17}">
   <dimension ref="A1:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3922,17 +3922,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6B3DAE9C-D976-43A2-895D-67474D1BF628}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5BAD053D-602A-41A8-88B2-D194FAA2E6EB}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{80147FB3-42EB-42D1-A301-DB5E677A0FB4}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1F0E3E48-C014-4C47-BAEF-E894740AC1BD}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E9A57A5A-195A-42FF-BDFC-82BDD0C80A13}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{00E47FBF-FCC9-47F1-8DDE-64F3BF44A70A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9F21DA62-013B-4247-BC45-98CFC9AAF8B0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9A90ACDA-8EAA-4CFC-881D-89B0C69653F0}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{CF30BE9A-9651-4E1A-8D8F-F0CE9305053D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{7CE1340D-2823-4482-9583-4F9E967F7343}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9D8B0A8B-8EB5-45EC-B0B4-C2F110182D99}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B734A9C7-A6FD-4061-B8A3-EE1CCD675D8C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{738A4BDA-38B6-4463-B28C-783BD660FE3B}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F6BD3A73-576F-4160-BF99-3A2837997B6F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F081798F-EE22-4775-8F4C-1B8B4D267364}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{46FE59EF-A5E6-40C4-BB3F-25BA2508F7A5}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F111D614-73B8-47D4-A9A4-7633A8E602D6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{188EA802-1ECF-4295-AA83-4BF03F28E397}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AE27FEA8-8C26-4D9E-A1E1-F3A8B9D1709C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{4772D20C-C90D-4830-B7FC-F39E13DF1B7B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{BA130F36-3E71-48C9-BB5F-1FAC5BB6EF0A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5110CEA0-4773-44DD-AEB2-DE7939414680}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3945,7 +3945,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9080F95-1448-4DE2-A397-D6397B21DC93}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E31C1439-2EA6-4D97-986F-96AD05EB98B7}">
   <dimension ref="A1:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5183,17 +5183,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A8A9E392-7BB3-408E-AC6D-0765BC0B2F57}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CE87988E-2DDE-45F6-B558-4F5A5020CEA1}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{CD0EA5A2-8080-4EFB-90FA-213D4A7E418F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{548C465F-4C2F-40AF-AF52-8CE838794E71}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5F11F495-F5C0-41C4-8A17-DD2BB4931DF4}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D38294D1-095E-4925-ABD9-BAF01092BE6F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{59D7E0BF-D027-4D22-AB3B-CA1D919352EB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FC9EB099-30E5-4A6A-8092-426AC98BAF14}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{0C6B28ED-5A24-4177-AA13-A7E44B5B64B1}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{6DCCD1E3-EBF1-4FBD-AA00-699954C402C1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5D05E5F0-E3CA-47B0-A2AA-1820866196AA}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{54C0A297-BAB7-42A7-918C-A59326208B72}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EA3385BD-7ED7-4BB1-870C-0AC32D15B2C8}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F6CEA471-A6AA-4174-B7FD-207B9EA01B22}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{576BE80D-EC74-4BFD-88B4-619EB4141BC1}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{82A17047-029F-403B-9891-E2B5ED7CD2AE}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{06C377BE-68B1-4036-9865-9026D7F8B1C0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5D9A24D7-6825-4E35-ADA0-EAE0F6352DCB}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B97CC98D-1438-4C07-AAE3-99EBABC973C6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{B5F92E23-63B7-4FEF-B106-58A47F12EB66}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{B930D89C-52F6-4A23-BD07-F12B518D3B29}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AA6316FD-35A1-44EB-A6AE-F77AAB8DB840}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5206,7 +5206,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5AC268A-FE94-44A6-83D2-1CBCD4813D15}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB22FA19-6AE7-4414-B5A7-9D367851167D}">
   <dimension ref="A1:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6436,17 +6436,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4A1CBC7A-F98B-4675-AF24-F96A74B2A4B4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{45DC50A8-4DB9-413E-BC96-FEC33CA8961F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2FDF1576-03E1-4E3E-9AC6-D3D1547FE322}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{40E7C9A3-82BC-4A6C-83D5-22E2F2CCA66C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B4308C97-20D7-477A-812C-B208BA59296A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F0BF1A96-2019-408B-8A0A-010DD7F3DD19}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{46ED75C6-BE23-4421-A049-8157587C942F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0B14765A-DC71-4F06-8033-A9F1BCCCDEA1}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{3474D0DA-15E3-41AB-AA7F-A394658E5EAF}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{C4F1014A-0BA1-4695-B919-8952E032ADE0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{48C98C9D-8650-40DC-9FDD-4881BE0A4895}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CDB91941-7B60-479D-B31E-9F47732FF78E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2BCF23F5-5D29-4DB0-A0BA-93F9B783CEBA}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{FE24DCEF-1A61-48E1-B7A5-E58C7C9D8C5D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3066DA94-9B09-4AD4-9B63-93C948400236}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AD44E1B7-0AD7-41CF-B9B3-2FA9DA97AE8B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{48C085A5-E620-4B27-8384-324DFEA78D0C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{33633EFD-341D-49F0-8A29-F15E4EAB1222}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{662C68CA-8A70-4089-8748-8D119CCBB229}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{62FD27D0-1FA9-49F1-A8F9-6AD6983CA16A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{2EABCD3C-8555-40F6-8999-9DF058DE394D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DAB54939-5529-4291-BFC9-07AD0F0FB2A7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6459,7 +6459,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF25951C-2F50-4F01-BD82-22852049CAA7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB20DD77-DC99-4BF1-87B2-89719A287508}">
   <dimension ref="A1:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7717,17 +7717,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{07FD6139-7D77-48F6-B794-AABABF824556}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{77B3FA67-95E7-4CBF-8591-88FED40BFED4}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{7AC2C396-6B8D-4652-BF1F-DA61EB6A71F1}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C5381552-7BA1-4752-8375-BB1428A1D033}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8779BCB2-623D-45FF-ABD7-D352A8F9FDEC}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{823A981C-6597-4EC8-BB22-1A1B779A63B8}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6BC24C00-2738-4E40-B287-ABDF50D5FBB1}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7F0C025F-6AB1-4B45-8F28-C7D176490170}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{0B2F45A0-0DFA-49D7-9ECE-1D8FA9E34A08}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{042A3E00-4946-4D18-8364-4B3D4D40D91F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D04B67B7-7649-40D6-973B-4C379A2B3112}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{14C3EA33-12E6-4A1E-B193-09A37A30D10E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0CA3458B-F987-4A0E-B153-46B4BF03C937}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{ABB9B7A3-9DA9-4C73-A6DE-9F8EBCB2EE90}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7DAFD299-588D-4509-8158-5E35EA5A0A2A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{87084CFE-F847-4E5C-816C-2CF625CDF3EA}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9758B204-9713-47D7-B2E8-8FECD0F4B592}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AD08D467-2D88-4584-BE5E-4231D7EE863F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{71876736-0CC4-4F43-9008-12D975DBBEA6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{B48E1748-106E-483C-8ABD-64337C1543F4}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{89BCB2FF-7DF3-4BD9-838B-6F701EC59CF8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CC2B99AE-11BA-4D92-9C99-C6AC748BE0A9}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7740,7 +7740,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7E7AD37-47A5-4560-9B91-EE82D4C44989}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E77D7BA-3072-4830-8F2C-C151DB0C2435}">
   <dimension ref="A1:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8998,17 +8998,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BD6AC5FC-E0D2-46DF-A585-080F63969B83}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8908E990-14C0-4DB5-ACCB-116213B21E92}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5FA5E082-3AEF-4EF3-BE98-57CE0447212D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CB2F89E7-9F55-44F4-89E2-A33DED8D20FF}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EBE355C3-2435-4B7F-8207-A8714A43296E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{45608188-5AB4-49A7-B654-5BCA5184E57C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7D08D5F1-2453-4BED-843C-F64A5474F311}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{014A6F84-F0AA-460A-B419-E6715E377A70}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{38C1A262-7749-42E8-8DB0-2B275E43C80A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{BECB1D5E-9DB6-4238-BD20-8789451795BE}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0F426086-D943-46DA-97EB-520639D5322B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3E1D025C-B18D-4051-816D-40E1A78396F7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{217E00C6-3285-47DD-86C9-5240817450D5}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0FC54890-FC36-4C73-8E1C-63F6149A6E06}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6862BEC5-52EC-4F37-A119-53B0D0F9E33B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6FBACB2C-CF8D-477D-B991-C48C93F258E5}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B9EE719B-09F3-471B-B92C-CDA9B1FD27CF}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4900C6AB-29F7-4726-84B9-CFBE933CE4EE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{32BDF281-5EE0-49EB-91C1-404202C47C8F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{58484E07-D129-46DF-B56E-D5230B7F9FCF}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{665CC32A-F0CF-4A31-BF44-49F0A0021C20}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BE00E835-943C-429F-BEA4-6E84DDFA2B79}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9021,7 +9021,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77DA0C58-AD84-4591-8196-D7D426B0262F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD815037-9D31-4E28-98D8-0B2FC3732BEF}">
   <dimension ref="A1:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10275,17 +10275,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{645B3480-1020-4843-B00C-4CF30BCDF628}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6E1C9744-F74C-4266-B552-75F9C5A9D48B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{073B2B1B-8B23-4194-AF47-C0D458EC2960}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{61DD7B62-620D-42C4-9130-6CBFF3E37375}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B0D2319D-9FCE-42DB-8F24-96033AF21EE2}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3DA12CF6-D96B-429E-87BC-3E3E05404441}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{60B33034-F866-4638-A522-6C54732FB4B3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{95F77DEF-CDC4-42C5-A021-A7A48F3741B8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{178B2168-538C-4284-B2BE-1D2BC4BE4E85}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{2F1F2194-F65F-447A-BDA0-34C6F33D7C81}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B2B0F03D-A752-4589-A8DE-0E752E753CEE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A087594F-6E16-4CD2-85C0-BC00C9C66549}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A2D0E004-BC6A-4255-8F1C-552DB51927D5}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{10DEDC1D-4A02-4562-A272-70FAB1B2F380}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9F814FB8-044C-4809-9231-742D0F9B7A23}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CA3CD0ED-96C2-4E26-8480-DC6E0CB15581}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8A0205EF-7C2C-4C7A-99E7-72B21E4778FD}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F3671CF8-4301-4338-85EB-B1E5FE7BAA2E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AFE6D5F9-0704-4A92-A743-0F7B849F9FE9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{813CB9F3-C1FA-4B35-ADE7-DBD1A6CC8CC0}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{552837A0-140B-41D7-8DDC-2B5E5CC0254B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DBD2CD49-2092-476C-BD83-97D9D7191153}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10298,7 +10298,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{249C28B3-0683-42A0-A1C3-136CFC12E9C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B7D37D3-8351-4295-9914-F200B629CAFF}">
   <dimension ref="A1:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11552,17 +11552,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C3CE3A14-27D4-4666-A551-32C80627B39B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6B5813AB-A7E7-4965-BAC3-CBA88B59EE9C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A6A53AE4-5B6D-4294-862F-D29EB069CC80}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{48947E8E-CDE1-429A-B808-BEAE137520D2}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2FFC1F92-B322-47AD-A3E9-895900E5C8B9}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A0E363F4-246F-4262-A534-5D7ACB091693}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{11940298-0D68-4B0E-B2AB-E10818975C1D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C79FD08C-ECF0-41D8-8791-50532482316C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{2F1B1110-B5C5-4F21-8486-FCBD09E5F8B4}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{FA992984-72F1-4F4E-8D96-53E8FDB08E6A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BEB843BD-5CC7-4018-851F-83463F236502}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{01978C77-0D32-4069-9988-6565C1F02B78}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{136A060C-7FDC-47F8-9102-90C3CDCC1221}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C95A167D-E44C-4AA1-B821-AB267927923E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{164A2298-7E8C-4C6E-85BF-5FC7E8A466FF}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{88AE98D9-365F-4D67-B25D-5132F32D82D1}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5593B376-7627-46C0-81AC-CD4EE96B3B42}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B55B49E0-F334-4EDD-AAD1-0C3F3692E6C0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{847792C8-3A32-4FE1-80B7-457BF5E457DC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{CF7A815F-E509-4B4F-A202-2E2CCFB835E6}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{1A39928E-6B66-49D1-BF85-9F08C48FAC6B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6BAA3537-3E4C-4F89-A4FD-023EC83A8BAD}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11575,7 +11575,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{180F7D87-DD22-4DA5-AD51-8F46BDE9C567}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F2B79C7-A8A0-4489-9C6F-DD5A3EBEDEFA}">
   <dimension ref="A1:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12825,17 +12825,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3D036B1B-74FB-4D16-BA53-73532882D6BD}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E5EFFE90-6B0F-40C8-BF01-A38C760DCCE3}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{DEB542E1-6941-43D4-B52F-29CED5DB53D7}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8B17CE8D-BA44-450B-B635-BEF50FA8C826}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{00D70B98-4C63-46FB-8B52-CF10D85070FA}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3AF4BFF4-1E40-46CB-8093-B3F4CCC62B6F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B52E7E29-9426-45B9-B8CB-92F6CEADC037}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8A57CDF6-7086-4E64-8B30-945C9FB2114F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{8E8DCA2B-396E-4F52-85D9-895B2AFE8A72}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{436A33F8-643B-4107-A304-95D5FB677D73}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{059645CF-B383-475A-9362-D72698845855}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{63B5E4CA-FD02-4C9C-86B0-7F064ED21857}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F727EDD2-6163-4DFD-BC7F-59806F7EE232}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C6CCDF5C-6342-4254-B9F1-2DB2BA4B2729}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4601B562-C7D8-4056-88F3-392C0DAC6868}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0E29C7BE-82E3-4E8A-AD54-23FCB7EFCF16}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9660A225-168C-4874-BE31-D57720F706BA}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BED6D495-917A-402B-B087-E9A29F53E346}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A77CA793-4FF8-4503-91C8-B5866A37996B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{ED020BFE-DBBD-4B31-BDF9-2B159871892E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{5E65E02B-106A-4FD6-83D4-8B3886CB4E9E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FD41395C-2ECE-40F1-AE8B-2331F6329860}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12848,7 +12848,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{459187B5-24A0-48BF-873D-25AB578054C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{231A7091-4EE0-4447-B091-09570FFA3A6D}">
   <dimension ref="A1:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14098,17 +14098,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B0E55144-B465-4D70-9730-DEDB2DEFF56A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8978F9AD-E0A5-4456-AB71-04FAB9C21E40}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{BDC2C063-C03F-40EA-A304-CCFE5EFEDF91}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BFC87B76-FA03-4CF1-BDCB-DADEC29A8191}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6D54A606-93BE-49E9-BA21-0837B8085A6B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6918BF09-CE8C-4171-89AC-9E4EFEFB599C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EFDBA4A4-1FF0-4641-BB11-B94CAF1FA32F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4DD2C71F-6CE8-4121-8DF6-E3083142C477}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{9E0008B1-138B-410D-A9E0-C0F186C0FEE1}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{F515628C-8439-4BC5-B52F-3C5C86EE4AF1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E32A06B5-F8BA-47D8-B2FA-57E8785C901C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{ABFE72BD-5CF9-43F9-9100-7E244DA920EC}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4B5D22EA-7153-4271-BD0C-81C14D3CBA46}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{BDC533B6-617C-413A-8911-9756A7F6BF4F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5C2712C4-E4B5-4D02-8ED4-BF47268C18E7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{93D25EC3-A3FE-4D76-824E-732E0A07F3A8}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0D685C06-53E8-4147-94A9-C3C0546A396F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1747E60B-F09D-424E-8EB7-E68281BC4C43}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C7353E41-F7B5-4A93-BD75-63E6F0784E37}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{675FF12D-B511-43DD-8603-870EAF34ADD4}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{A42557C0-D978-4EB0-82F9-3593C2C6C5BA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6CD8CB5F-8CC2-45A8-B77E-9B6EF3536B00}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14121,7 +14121,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C3DE969-A258-43E4-9747-035E8101AADF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F5A6B29-2222-4111-A844-E37F6E95FC23}">
   <dimension ref="A1:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15371,17 +15371,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6FF787A6-C690-4209-859E-B1910DB241FF}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4EB39738-0F40-4872-A1D7-12DDCDCA79F7}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6013D576-AE1E-4716-84F4-D684729AE426}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8E6C784C-9E31-4FEF-941F-F644D485C795}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{46BAF884-461A-47B0-9C7A-FA8353D1C290}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{AF76DC7D-F74D-4651-B04E-CB9C5328A6E4}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E7C880B1-343B-4A3A-A5F6-5146567F8085}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8635836F-7DFA-4ED0-BCF1-E0EB3C90BA5D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{96CF44F3-3692-439F-BE75-0A5FD03E3872}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{AA492D89-96FB-4D31-BD67-9505B303BCE1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AC84F251-B148-409B-AED1-5D2CD177AA39}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{30B0E484-24E8-4862-8EA7-EB098AC2BFC2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1BCC95BD-00FB-43A0-A9FB-64AF4959F8E2}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E461F882-A142-410D-A02C-511CD70A84BB}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4B8B754A-C7B8-422C-9E5F-094F727E9B27}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C683B98F-8BA2-45C3-BC4E-DB588A634710}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{54E04D63-9CBD-46ED-B5CB-A8549B2A40B4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6B57612D-BE32-4313-A7B4-5E81D7BC5CEA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{776D218A-19A6-40C1-9629-23C622BD0A4C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{43C9A2FF-13CC-4357-A8FB-7A7ACDC506B7}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{4AE35B3E-A0CA-44BA-A2F0-38F2B0A8611D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{ACD66D30-1966-4415-AD23-BA4EB762B018}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15394,7 +15394,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{313C11F2-5992-4614-AE96-98C1092D4846}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE98EC34-E697-4452-B972-703FA74446FA}">
   <dimension ref="A1:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16640,17 +16640,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{14195C6D-CB65-4597-BD43-6510E145AB0A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8E5E1DC4-C7EF-412A-8D48-03183F5C030A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{00D0565C-A811-4378-93C4-C71B759CE3BB}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4B17AFCA-E639-4352-B0CD-70790DFCB8B2}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3869EE0C-6018-4C9B-B676-E7F08B93747D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1F31EA55-0CCE-4270-891D-7DC1ACFA3B0E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8A3C84AE-2A6A-4D9B-8DA0-67A68C35DEE9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B2C6500A-B9CF-4AD4-B9F2-4B962B70FDAE}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{079DA162-9042-44B4-8B6C-5D79C6A66E30}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{5039EA7E-BE6E-4E3B-8D67-C734CE2B8788}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7BFD6180-93E3-45FE-BC5F-14D7931907AB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C6404302-AEAE-4817-92D3-7CA89C64A4EF}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9D366B5A-61B0-4908-8B52-CA9955766009}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{82D86C4C-85CF-4693-A4EB-4C5CDA020643}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{63172BF8-632B-4766-8052-76785A83994A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3F3FE2DE-3715-4A26-8F60-3BAFE5116621}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E485F1ED-2A08-4E0A-A483-491FF3D826D0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CED8BF4D-E099-4DA4-B488-A9277DB528C5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{62D366C7-E120-4BD8-93FB-ADA187012308}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{229E9DC1-EC21-4DA4-9A15-25FC3C203CAE}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{F6C11506-5E91-4BDF-A541-784FFEB75E22}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1294F63E-A54B-4E63-9720-A03D8260A774}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
